--- a/downloadfile/floormanager.xlsx
+++ b/downloadfile/floormanager.xlsx
@@ -25,6 +25,9 @@
     <t xml:space="preserve">CoID</t>
   </si>
   <si>
+    <t xml:space="preserve">EventId</t>
+  </si>
+  <si>
     <t xml:space="preserve">Exhibiting As</t>
   </si>
   <si>
@@ -53,9 +56,6 @@
   </si>
   <si>
     <t xml:space="preserve">Text Number</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EventId</t>
   </si>
 </sst>
 </file>
@@ -65,7 +65,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -94,6 +94,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -145,12 +152,16 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -178,31 +189,31 @@
   <dimension ref="A1:L1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="18.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="35.73"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="35.46"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="19.63"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="8" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="3" min="1" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="17.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="18.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="35.73"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="35.46"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="19.63"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="9" style="0" width="11.52"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
